--- a/AfDD_2024_Annex_Table_Tab08.xlsx
+++ b/AfDD_2024_Annex_Table_Tab08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B713E99-E014-4812-9139-31F125A82A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{908654D8-34FB-459E-BB4E-A37246E31097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CCA291A6-1801-4FB1-A9E2-D7E973658874}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B045663-F2CB-47F7-AAB3-2A9C5C08B2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21322B9-64B4-4DBE-985D-50F14121D485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948E00CD-3C49-4DC8-860F-C0E7E43FEF8F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7612,12 +7612,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8AC197C7-FEB2-437B-86FB-D48937189A8C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FF5C0CE8-451E-4C61-999E-0FB1F3F287AB}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EA1F2EC4-D6DF-4E3B-B58B-DF88AEDC0FAE}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{36FA0209-0F27-45FF-9359-99794C7AECDE}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{04ED3FDB-06C6-4AB8-A219-14DC3A1C4D8F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5347AA76-CF47-4163-96FF-F168873C4491}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EEF8D5F5-7C1F-4790-912D-4A414CFD1993}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BD672876-3246-45A8-8B10-C371FD675A31}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1552B5C8-EAE0-4E74-8F30-F9CBDB5FE101}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{DBFF0932-B769-4F3D-A6FB-B63EB8BF84E5}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{5163229B-D835-4E08-B4F3-393DF3269787}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B21141BD-6CE2-4324-9C32-04F24A1634F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab08.xlsx
+++ b/AfDD_2024_Annex_Table_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{908654D8-34FB-459E-BB4E-A37246E31097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95F39CE-D291-4BFC-B153-520C315CF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B045663-F2CB-47F7-AAB3-2A9C5C08B2D7}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{220C0CC7-CCCD-4B5A-AB79-966A828DBE3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -589,12 +589,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -973,7 +972,7 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +987,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1002,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,7 +1017,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1038,7 @@
     <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1053,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,13 +1062,13 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1087,7 +1086,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1104,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1119,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1135,7 +1134,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,7 +1158,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,13 +1173,13 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,8 +1193,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1511,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948E00CD-3C49-4DC8-860F-C0E7E43FEF8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F25C9F-BF09-48C0-96B7-A88629A35B38}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1523,7 +1522,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="12.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="12.42578125" style="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,11 +1538,11 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -1579,25 +1578,25 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -1638,25 +1637,25 @@
       <c r="J3" s="15">
         <v>39.041649195994303</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>6.0962166416092796</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>22.302886350682599</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="15">
         <v>2.19132727263016</v>
       </c>
       <c r="N3" s="15">
         <v>16.642962838675999</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>7.4428118147202396</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <v>56.707506268501497</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="15">
         <v>5.7175689214526999</v>
       </c>
       <c r="R3" s="15">
@@ -1700,22 +1699,22 @@
       <c r="K4" s="21">
         <v>11.048100477270401</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>14.794431165687699</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="21">
         <v>4.92679786511464</v>
       </c>
       <c r="N4" s="21">
         <v>39.071971978803496</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <v>5.6578613055322098</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>17.593452708821498</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="21">
         <v>15.9516118491686</v>
       </c>
       <c r="R4" s="21">
@@ -1759,22 +1758,22 @@
       <c r="K5" s="26">
         <v>2.8246437375293398</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="26">
         <v>15.8310583354053</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="26">
         <v>6.1018452201653002</v>
       </c>
       <c r="N5" s="26">
         <v>34.495068479827601</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="27">
         <v>29.282545758360602</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="25">
         <v>13.6490853287543</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="26">
         <v>24.067751923310901</v>
       </c>
       <c r="R5" s="26">
@@ -1818,22 +1817,22 @@
       <c r="K6" s="26">
         <v>2.9873590981356002</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>9.1793205394597503</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>4.8623852137492003</v>
       </c>
       <c r="N6" s="26">
         <v>44.162829024195901</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <v>17.812062708193402</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="25">
         <v>29.9581895821633</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="26">
         <v>34.795106028825401</v>
       </c>
       <c r="R6" s="26">
@@ -1877,22 +1876,22 @@
       <c r="K7" s="26">
         <v>3.2732099178571099</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>12.9800596991448</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>10.5599370098699</v>
       </c>
       <c r="N7" s="26">
         <v>28.983474653499801</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="27">
         <v>11.4677270804717</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="25">
         <v>62.628048329839103</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="26">
         <v>8.02648211863543</v>
       </c>
       <c r="R7" s="26">
@@ -1936,22 +1935,22 @@
       <c r="K8" s="26">
         <v>1.4139982487854701</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>10.8463570282821</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="26">
         <v>10.039537633062601</v>
       </c>
       <c r="N8" s="26">
         <v>24.144851644617699</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="27">
         <v>9.4430091317059901</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="25">
         <v>70.530061958543897</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="26">
         <v>9.0072854208879995</v>
       </c>
       <c r="R8" s="26">
@@ -1995,22 +1994,22 @@
       <c r="K9" s="26">
         <v>1.61842504371811</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <v>13.9570240304822</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="26">
         <v>4.8169371723056598</v>
       </c>
       <c r="N9" s="26">
         <v>41.519251242379902</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="27">
         <v>12.1313314070114</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <v>22.026945250406602</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="26">
         <v>16.505924497106601</v>
       </c>
       <c r="R9" s="26">
@@ -2054,22 +2053,22 @@
       <c r="K10" s="26">
         <v>2.4627415047768002</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <v>13.565018986389299</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="26">
         <v>7.5830095936525197</v>
       </c>
       <c r="N10" s="26">
         <v>48.221499706558397</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="27">
         <v>13.6596830390619</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="25">
         <v>21.2776947559809</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="26">
         <v>17.248737160017399</v>
       </c>
       <c r="R10" s="26">
@@ -2113,22 +2112,22 @@
       <c r="K11" s="21">
         <v>12.2465743027991</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="21">
         <v>21.099460196852199</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="21">
         <v>15.1958187677699</v>
       </c>
       <c r="N11" s="21">
         <v>22.839152971227001</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="27">
         <v>8.5146931050615393</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="20">
         <v>57.788508447186402</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="21">
         <v>10.1860597922061</v>
       </c>
       <c r="R11" s="21">
@@ -2172,22 +2171,22 @@
       <c r="K12" s="31">
         <v>5.1961211544115198</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>17.225185281831902</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="31">
         <v>6.7493775153808899</v>
       </c>
       <c r="N12" s="31">
         <v>23.007543368122899</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="32">
         <v>23.244981187942901</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="30">
         <v>53.622533557175998</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="31">
         <v>13.4872409509749</v>
       </c>
       <c r="R12" s="31">
@@ -2228,25 +2227,25 @@
       <c r="J13" s="37">
         <v>28.3048849445073</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>3.97049646131032</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>15.687716941148899</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="37">
         <v>6.8389603949743503</v>
       </c>
       <c r="N13" s="37">
         <v>38.431749964902799</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="39">
         <v>12.2806046535006</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="36">
         <v>40.5782026187374</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="37">
         <v>15.499376866258601</v>
       </c>
       <c r="R13" s="37">
@@ -2287,25 +2286,25 @@
       <c r="J14" s="43">
         <v>15.100605712934</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="43">
         <v>3.8781596582617501</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="43">
         <v>5.8031839227061202</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="43">
         <v>4.3140127718480903</v>
       </c>
       <c r="N14" s="43">
         <v>34.629688273819497</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="44">
         <v>13.887312773760399</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="42">
         <v>85.313134186872603</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="43">
         <v>3.1218109154075999</v>
       </c>
       <c r="R14" s="43">
@@ -2349,22 +2348,22 @@
       <c r="K15" s="26">
         <v>7.5139161978731899</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>17.001965418055899</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="26">
         <v>13.334628335589301</v>
       </c>
       <c r="N15" s="26">
         <v>23.943738863651799</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="27">
         <v>13.937320819439901</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="25">
         <v>42.822212467489003</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="26">
         <v>15.282068972648</v>
       </c>
       <c r="R15" s="26">
@@ -2408,22 +2407,22 @@
       <c r="K16" s="26">
         <v>1.65003066579042</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>19.247767100367199</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="26">
         <v>2.2607393779443701</v>
       </c>
       <c r="N16" s="26">
         <v>23.367358303732502</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="27">
         <v>19.334803174794299</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="25">
         <v>71.207128506803599</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="26">
         <v>6.2379322724505197</v>
       </c>
       <c r="R16" s="26">
@@ -2467,22 +2466,22 @@
       <c r="K17" s="16">
         <v>4.2758841917919304</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="16">
         <v>7.61691741732528</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="16">
         <v>2.6933159393674</v>
       </c>
       <c r="N17" s="16">
         <v>11.012612635929999</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="47">
         <v>14.6568043787378</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>69.549438681250805</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="16">
         <v>9.5342953031281592</v>
       </c>
       <c r="R17" s="16">
@@ -2526,22 +2525,22 @@
       <c r="K18" s="16">
         <v>2.04064868204066</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="16">
         <v>14.381186219275399</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="16">
         <v>6.6126502300891596</v>
       </c>
       <c r="N18" s="16">
         <v>26.082131489140998</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="47">
         <v>10.7368003071141</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>32.803433143530903</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="16">
         <v>22.128992814181299</v>
       </c>
       <c r="R18" s="16">
@@ -2585,22 +2584,22 @@
       <c r="K19" s="21">
         <v>0.98783152107827998</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="21">
         <v>11.6100927600398</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="21">
         <v>8.2781632576963506</v>
       </c>
       <c r="N19" s="21">
         <v>12.421477588235</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="27">
         <v>17.188014290929299</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="20">
         <v>56.635434688090598</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="21">
         <v>10.064581182462</v>
       </c>
       <c r="R19" s="21">
@@ -2644,22 +2643,22 @@
       <c r="K20" s="16">
         <v>3.4699656658243101</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="16">
         <v>8.4717803709949298</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="16">
         <v>6.76663325378669</v>
       </c>
       <c r="N20" s="16">
         <v>29.4280508615972</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="47">
         <v>22.922519239015902</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>55.986219485121801</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="16">
         <v>13.1118392382894</v>
       </c>
       <c r="R20" s="16">
@@ -2703,22 +2702,22 @@
       <c r="K21" s="16">
         <v>3.3870727960488298</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="16">
         <v>4.5251821140091497</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="16">
         <v>11.505806174532101</v>
       </c>
       <c r="N21" s="16">
         <v>22.288937709583902</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="47">
         <v>7.7619385850443496</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>29.920929708524099</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="16">
         <v>16.082797547915899</v>
       </c>
       <c r="R21" s="16">
@@ -2762,22 +2761,22 @@
       <c r="K22" s="31">
         <v>5.4270293732187502</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="31">
         <v>30.428658015163599</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="31">
         <v>11.2398958989476</v>
       </c>
       <c r="N22" s="31">
         <v>31.4851473239722</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="32">
         <v>5.9390769330344702</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="30">
         <v>17.555142523479802</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="31">
         <v>20.045396976824499</v>
       </c>
       <c r="R22" s="31">
@@ -2818,25 +2817,25 @@
       <c r="J23" s="37">
         <v>40.052448985174898</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="37">
         <v>3.51466675507266</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="37">
         <v>11.724242338165899</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="37">
         <v>8.9044932632713305</v>
       </c>
       <c r="N23" s="37">
         <v>19.0708629791581</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="39">
         <v>14.8985608633803</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="36">
         <v>51.310341487907003</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="37">
         <v>12.8455239137008</v>
       </c>
       <c r="R23" s="37">
@@ -2877,25 +2876,25 @@
       <c r="J24" s="43">
         <v>8.4495506353490697</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="43">
         <v>1.03481165607389</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="43">
         <v>19.962343239758201</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="43">
         <v>6.0954112022399496</v>
       </c>
       <c r="N24" s="43">
         <v>26.425135985723401</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="44">
         <v>7.3109283830395801</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="42">
         <v>35.212705561306997</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="43">
         <v>14.695456779050501</v>
       </c>
       <c r="R24" s="43">
@@ -2939,22 +2938,22 @@
       <c r="K25" s="26">
         <v>4.1556584091307602</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <v>32.096170887039499</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="26">
         <v>24.6525907072152</v>
       </c>
       <c r="N25" s="26">
         <v>29.893345268588799</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="27">
         <v>3.03945393506481</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="25">
         <v>1.20934689495134</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="26">
         <v>5.9578373760347301</v>
       </c>
       <c r="R25" s="26">
@@ -2998,22 +2997,22 @@
       <c r="K26" s="26">
         <v>15.725956892746799</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <v>11.39211004783</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="26">
         <v>12.289339085161</v>
       </c>
       <c r="N26" s="26">
         <v>27.733732053289302</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="27">
         <v>6.0288910839496301</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="25">
         <v>64.448390643190194</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="26">
         <v>8.9697055149185996</v>
       </c>
       <c r="R26" s="26">
@@ -3057,22 +3056,22 @@
       <c r="K27" s="26">
         <v>17.899011366925698</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <v>15.6103872042981</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="26">
         <v>4.21879188861194</v>
       </c>
       <c r="N27" s="26">
         <v>17.889113543586902</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="27">
         <v>4.3756400206583503</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="25">
         <v>63.466008560117103</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="26">
         <v>6.3072984272691697</v>
       </c>
       <c r="R27" s="26">
@@ -3116,22 +3115,22 @@
       <c r="K28" s="26">
         <v>7.5996590131365904</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>9.4775176077578305</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="26">
         <v>15.7117797967733</v>
       </c>
       <c r="N28" s="26">
         <v>33.458004431215798</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="27">
         <v>8.3368280078546402</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="25">
         <v>33.262383270889103</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="26">
         <v>15.5605123226331</v>
       </c>
       <c r="R28" s="26">
@@ -3175,22 +3174,22 @@
       <c r="K29" s="26">
         <v>7.9648044996284497</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <v>12.9143035276056</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="26">
         <v>8.5622237850732308</v>
       </c>
       <c r="N29" s="26">
         <v>28.956329514914799</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="27">
         <v>10.894518982133301</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="25">
         <v>71.189585305974603</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="26">
         <v>9.6071838288003608</v>
       </c>
       <c r="R29" s="26">
@@ -3234,22 +3233,22 @@
       <c r="K30" s="26">
         <v>5.1961196961497604</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <v>17.867636742629202</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="26">
         <v>9.5223778886817794</v>
       </c>
       <c r="N30" s="26">
         <v>47.755196119696201</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="27">
         <v>13.8087507265548</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="25">
         <v>5.3453911152044098</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="26">
         <v>21.814488102737499</v>
       </c>
       <c r="R30" s="26">
@@ -3293,22 +3292,22 @@
       <c r="K31" s="26">
         <v>8.1700118063754505</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="26">
         <v>12.758756395120001</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="26">
         <v>7.9260133805588397</v>
       </c>
       <c r="N31" s="26">
         <v>29.508067689885898</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="27">
         <v>10.696576151121601</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="25">
         <v>56.2465530072676</v>
       </c>
-      <c r="Q31" s="25">
+      <c r="Q31" s="26">
         <v>14.361118443450399</v>
       </c>
       <c r="R31" s="26">
@@ -3352,22 +3351,22 @@
       <c r="K32" s="26">
         <v>4.1879172368039201</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <v>23.381846830036899</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="26">
         <v>8.8029191027076408</v>
       </c>
       <c r="N32" s="26">
         <v>51.192105154040703</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="27">
         <v>5.8672305842351902</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="P32" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="26" t="s">
         <v>67</v>
       </c>
       <c r="R32" s="26" t="s">
@@ -3411,22 +3410,22 @@
       <c r="K33" s="26">
         <v>4.1947945744789497</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="26">
         <v>10.629517124292899</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="26">
         <v>9.3829396740870905</v>
       </c>
       <c r="N33" s="26">
         <v>12.453558183038499</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="27">
         <v>2.48214220787824</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="25">
         <v>26.4979386194074</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="Q33" s="26">
         <v>17.733587163985099</v>
       </c>
       <c r="R33" s="26">
@@ -3470,22 +3469,22 @@
       <c r="K34" s="16">
         <v>2.2784246280045601</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="16">
         <v>6.0526908054025403</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="16">
         <v>8.6859300659557306</v>
       </c>
       <c r="N34" s="16">
         <v>19.915252738527499</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="47">
         <v>1.7819520311438699</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="46">
         <v>60.783296168660101</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="16">
         <v>13.628134240197999</v>
       </c>
       <c r="R34" s="16">
@@ -3529,22 +3528,22 @@
       <c r="K35" s="26">
         <v>3.4247954592191698</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="26">
         <v>17.047687129853902</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="26">
         <v>8.7934255270736799</v>
       </c>
       <c r="N35" s="26">
         <v>32.2546461454153</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="27">
         <v>8.8091897525930491</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="25">
         <v>40.936807040024298</v>
       </c>
-      <c r="Q35" s="25">
+      <c r="Q35" s="26">
         <v>14.5126698899894</v>
       </c>
       <c r="R35" s="26">
@@ -3588,22 +3587,22 @@
       <c r="K36" s="26">
         <v>15.217737031015799</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <v>9.7922040751739203</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="26">
         <v>8.8896991503024196</v>
       </c>
       <c r="N36" s="26">
         <v>19.5021289281724</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="27">
         <v>7.7183298087105596</v>
       </c>
-      <c r="P36" s="27">
+      <c r="P36" s="25">
         <v>65.972819464160906</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="26">
         <v>8.3480557176917998</v>
       </c>
       <c r="R36" s="26">
@@ -3647,22 +3646,22 @@
       <c r="K37" s="31">
         <v>5.7265340253472301</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="31">
         <v>11.64517153904</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="31">
         <v>5.3075697763562504</v>
       </c>
       <c r="N37" s="31">
         <v>27.778052759345702</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="32">
         <v>17.0729257121729</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="30">
         <v>66.666064600730607</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="31">
         <v>7.12706176594439</v>
       </c>
       <c r="R37" s="31">
@@ -3703,25 +3702,25 @@
       <c r="J38" s="37">
         <v>13.2648081026167</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="37">
         <v>10.823703916629301</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="37">
         <v>12.7340597636151</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="37">
         <v>9.0773360148248106</v>
       </c>
       <c r="N38" s="37">
         <v>25.9232326036575</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="39">
         <v>8.1569094176097501</v>
       </c>
-      <c r="P38" s="39">
+      <c r="P38" s="36">
         <v>45.479791557837302</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="37">
         <v>12.201777659438701</v>
       </c>
       <c r="R38" s="37">
@@ -3762,25 +3761,25 @@
       <c r="J39" s="15">
         <v>25.8392589465032</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <v>12.198300670023601</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="15">
         <v>13.875747025461401</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="15">
         <v>10.872357697178</v>
       </c>
       <c r="N39" s="15">
         <v>23.9418655254381</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="17">
         <v>4.6632612454969102</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="14">
         <v>10.033098415205099</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="15">
         <v>30.942914400860001</v>
       </c>
       <c r="R39" s="15">
@@ -3824,22 +3823,22 @@
       <c r="K40" s="26">
         <v>7.6289256046513403</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="26">
         <v>15.4851447366468</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="26">
         <v>7.9771963705831297</v>
       </c>
       <c r="N40" s="26">
         <v>30.624307719437901</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="27">
         <v>16.7958758400721</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="25">
         <v>19.289170905522202</v>
       </c>
-      <c r="Q40" s="25">
+      <c r="Q40" s="26">
         <v>28.355091125473699</v>
       </c>
       <c r="R40" s="26">
@@ -3883,22 +3882,22 @@
       <c r="K41" s="16">
         <v>3.1339020263521902</v>
       </c>
-      <c r="L41" s="49">
+      <c r="L41" s="16">
         <v>6.9650564626388203</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="16">
         <v>3.38048128958114</v>
       </c>
       <c r="N41" s="16">
         <v>42.174557319929001</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="49">
         <v>2.6588306672782802</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="46">
         <v>9.5007741998393893</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="16">
         <v>22.786637473289701</v>
       </c>
       <c r="R41" s="16">
@@ -3942,22 +3941,22 @@
       <c r="K42" s="16">
         <v>4.5087604059144502</v>
       </c>
-      <c r="L42" s="49">
+      <c r="L42" s="16">
         <v>12.923844122417799</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="16">
         <v>5.5685885491373703</v>
       </c>
       <c r="N42" s="16">
         <v>27.639181200048299</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="49">
         <v>5.4305132914192296</v>
       </c>
-      <c r="P42" s="49">
+      <c r="P42" s="46">
         <v>33.699290386347499</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="16">
         <v>14.628436522506901</v>
       </c>
       <c r="R42" s="16">
@@ -4001,22 +4000,22 @@
       <c r="K43" s="26">
         <v>6.0569750846416097</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="26">
         <v>16.055676108667701</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="26">
         <v>5.8095867757584498</v>
       </c>
       <c r="N43" s="26">
         <v>38.473336852781102</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="27">
         <v>16.632471401711701</v>
       </c>
-      <c r="P43" s="27">
+      <c r="P43" s="25">
         <v>31.233778104734402</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="Q43" s="26">
         <v>23.9818265265015</v>
       </c>
       <c r="R43" s="26">
@@ -4060,22 +4059,22 @@
       <c r="K44" s="31">
         <v>3.8366081723021401</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="31">
         <v>16.384736998147702</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="31">
         <v>7.9647866823425</v>
       </c>
       <c r="N44" s="31">
         <v>40.321909347883199</v>
       </c>
-      <c r="O44" s="31">
+      <c r="O44" s="32">
         <v>15.919281801710399</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="30">
         <v>14.388505859679301</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="31">
         <v>33.426387918333901</v>
       </c>
       <c r="R44" s="31">
@@ -4116,25 +4115,25 @@
       <c r="J45" s="37">
         <v>26.348419247769598</v>
       </c>
-      <c r="K45" s="50">
+      <c r="K45" s="37">
         <v>7.9659140969018001</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="37">
         <v>14.738062900503801</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="37">
         <v>8.0433670657485905</v>
       </c>
       <c r="N45" s="37">
         <v>31.368731648792199</v>
       </c>
-      <c r="O45" s="50">
+      <c r="O45" s="39">
         <v>12.9553164538606</v>
       </c>
-      <c r="P45" s="39">
+      <c r="P45" s="36">
         <v>19.690769645221302</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="37">
         <v>25.6868823278276</v>
       </c>
       <c r="R45" s="37">
@@ -4175,25 +4174,25 @@
       <c r="J46" s="43">
         <v>12.213779180066799</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="43">
         <v>6.5274071969889098</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="43">
         <v>15.9340157656058</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="43">
         <v>11.681157361847999</v>
       </c>
       <c r="N46" s="43">
         <v>24.024794813785299</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="44">
         <v>10.8178027574592</v>
       </c>
-      <c r="P46" s="44">
+      <c r="P46" s="42">
         <v>29.0592939876807</v>
       </c>
-      <c r="Q46" s="42">
+      <c r="Q46" s="43">
         <v>22.226052453378401</v>
       </c>
       <c r="R46" s="43">
@@ -4237,22 +4236,22 @@
       <c r="K47" s="26">
         <v>4.1580938059186199</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="26">
         <v>8.2147150192646095</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="26">
         <v>4.2124068055689099</v>
       </c>
       <c r="N47" s="26">
         <v>30.9696260191545</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="27">
         <v>11.690237852348099</v>
       </c>
-      <c r="P47" s="27">
+      <c r="P47" s="25">
         <v>74.580139353839996</v>
       </c>
-      <c r="Q47" s="25">
+      <c r="Q47" s="26">
         <v>6.9464648057186604</v>
       </c>
       <c r="R47" s="26">
@@ -4296,22 +4295,22 @@
       <c r="K48" s="16">
         <v>11.3778782387503</v>
       </c>
-      <c r="L48" s="49">
+      <c r="L48" s="16">
         <v>22.105226542376101</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="16">
         <v>11.689000562903001</v>
       </c>
       <c r="N48" s="16">
         <v>42.512243494897099</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="49">
         <v>5.3890062696057601</v>
       </c>
-      <c r="P48" s="49">
+      <c r="P48" s="46">
         <v>10.537831423935099</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="16">
         <v>21.950851066940199</v>
       </c>
       <c r="R48" s="16">
@@ -4355,22 +4354,22 @@
       <c r="K49" s="26">
         <v>5.7557695371319202</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="26">
         <v>14.5580675341649</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="26">
         <v>11.284623640225</v>
       </c>
       <c r="N49" s="26">
         <v>32.109234543129602</v>
       </c>
-      <c r="O49" s="26">
+      <c r="O49" s="27">
         <v>14.082657039713601</v>
       </c>
-      <c r="P49" s="27">
+      <c r="P49" s="25">
         <v>46.018206160217602</v>
       </c>
-      <c r="Q49" s="25">
+      <c r="Q49" s="26">
         <v>10.500450076374801</v>
       </c>
       <c r="R49" s="26">
@@ -4414,22 +4413,22 @@
       <c r="K50" s="26">
         <v>12.178630345513501</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="26">
         <v>36.927764070487399</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="26">
         <v>6.9259501003900397</v>
       </c>
       <c r="N50" s="26">
         <v>14.680778846758299</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="27">
         <v>2.9977007235727702</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="25">
         <v>48.183067360955398</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q50" s="26">
         <v>7.4528793895896204</v>
       </c>
       <c r="R50" s="26">
@@ -4473,22 +4472,22 @@
       <c r="K51" s="21">
         <v>6.2306553608410802</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="21">
         <v>19.510809333189101</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="21">
         <v>10.002858733233699</v>
       </c>
       <c r="N51" s="21">
         <v>15.3932815921103</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="22">
         <v>12.354582918983001</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="20">
         <v>40.343506635831503</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="21">
         <v>18.7708522818548</v>
       </c>
       <c r="R51" s="21">
@@ -4532,22 +4531,22 @@
       <c r="K52" s="26">
         <v>1.1316645749735299</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="26">
         <v>18.904012844877201</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="26">
         <v>5.0031025635425399</v>
       </c>
       <c r="N52" s="26">
         <v>15.711368000347001</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="27">
         <v>12.297439203906</v>
       </c>
-      <c r="P52" s="27">
+      <c r="P52" s="25">
         <v>60.879831210956098</v>
       </c>
-      <c r="Q52" s="25">
+      <c r="Q52" s="26">
         <v>7.1469062781649502</v>
       </c>
       <c r="R52" s="26">
@@ -4591,22 +4590,22 @@
       <c r="K53" s="26">
         <v>1.76455977602231</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="26">
         <v>26.806378164890699</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="26">
         <v>6.7297206512712897</v>
       </c>
       <c r="N53" s="26">
         <v>20.145191546831001</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="27">
         <v>11.165857946732601</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="25">
         <v>50.9119959622249</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="Q53" s="26">
         <v>10.5017117977221</v>
       </c>
       <c r="R53" s="26">
@@ -4650,22 +4649,22 @@
       <c r="K54" s="26">
         <v>1.80980144230244</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="26">
         <v>4.8811078467042002</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M54" s="26">
         <v>5.3603758753895798</v>
       </c>
       <c r="N54" s="26">
         <v>7.2185360055495504</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="27">
         <v>4.28844256998745</v>
       </c>
-      <c r="P54" s="27">
+      <c r="P54" s="25">
         <v>39.9314682312408</v>
       </c>
-      <c r="Q54" s="25">
+      <c r="Q54" s="26">
         <v>8.2559226002524309</v>
       </c>
       <c r="R54" s="26">
@@ -4709,22 +4708,22 @@
       <c r="K55" s="26">
         <v>4.22255624806205</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="26">
         <v>11.440539474035299</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="26">
         <v>5.6933011563958003</v>
       </c>
       <c r="N55" s="26">
         <v>22.3105696101847</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="27">
         <v>16.753257252438399</v>
       </c>
-      <c r="P55" s="27">
+      <c r="P55" s="25">
         <v>68.246658402500799</v>
       </c>
-      <c r="Q55" s="25">
+      <c r="Q55" s="26">
         <v>9.9065026409399604</v>
       </c>
       <c r="R55" s="26">
@@ -4768,22 +4767,22 @@
       <c r="K56" s="26">
         <v>4.6972222214650001</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="26">
         <v>14.306210179942299</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="26">
         <v>5.0272313301421301</v>
       </c>
       <c r="N56" s="26">
         <v>19.443571581080398</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O56" s="27">
         <v>7.8954284358250399</v>
       </c>
-      <c r="P56" s="27">
+      <c r="P56" s="25">
         <v>71.283289380826801</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="26">
         <v>7.3320532468602098</v>
       </c>
       <c r="R56" s="26">
@@ -4827,22 +4826,22 @@
       <c r="K57" s="26">
         <v>9.3795421393571594</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="26">
         <v>14.2310038680278</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="26">
         <v>12.763904527839401</v>
       </c>
       <c r="N57" s="26">
         <v>17.709998659796199</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="27">
         <v>13.8000716601865</v>
       </c>
-      <c r="P57" s="27">
+      <c r="P57" s="25">
         <v>38.553613499711702</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="26">
         <v>14.4274072642744</v>
       </c>
       <c r="R57" s="26">
@@ -4886,22 +4885,22 @@
       <c r="K58" s="26">
         <v>2.4097572742593698</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="26">
         <v>16.3334377477229</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M58" s="26">
         <v>7.0400686964039396</v>
       </c>
       <c r="N58" s="26">
         <v>33.125079914494599</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="27">
         <v>15.8580700942384</v>
       </c>
-      <c r="P58" s="27">
+      <c r="P58" s="25">
         <v>22.235192918276098</v>
       </c>
-      <c r="Q58" s="25">
+      <c r="Q58" s="26">
         <v>22.392339482975999</v>
       </c>
       <c r="R58" s="26">
@@ -4945,22 +4944,22 @@
       <c r="K59" s="26">
         <v>0.73942964846176995</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="26">
         <v>6.3384924530443598</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M59" s="26">
         <v>2.8561181605604302</v>
       </c>
       <c r="N59" s="26">
         <v>23.944922891368499</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="27">
         <v>2.0556056206002302</v>
       </c>
-      <c r="P59" s="27">
+      <c r="P59" s="25">
         <v>44.0780166223607</v>
       </c>
-      <c r="Q59" s="25">
+      <c r="Q59" s="26">
         <v>11.851796681639</v>
       </c>
       <c r="R59" s="26">
@@ -5004,22 +5003,22 @@
       <c r="K60" s="54">
         <v>2.7070597205296498</v>
       </c>
-      <c r="L60" s="55">
+      <c r="L60" s="54">
         <v>8.3986099331286201</v>
       </c>
-      <c r="M60" s="53">
+      <c r="M60" s="54">
         <v>14.5316761188373</v>
       </c>
       <c r="N60" s="54">
         <v>33.801783665803299</v>
       </c>
-      <c r="O60" s="54">
+      <c r="O60" s="55">
         <v>14.6169080933069</v>
       </c>
-      <c r="P60" s="55">
+      <c r="P60" s="53">
         <v>31.4288356289128</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="54">
         <v>19.973405171716699</v>
       </c>
       <c r="R60" s="54">
@@ -5060,25 +5059,25 @@
       <c r="J61" s="37">
         <v>21.910812824314998</v>
       </c>
-      <c r="K61" s="50">
+      <c r="K61" s="37">
         <v>7.7557114800067701</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="37">
         <v>14.767150088403</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="37">
         <v>11.326143114653</v>
       </c>
       <c r="N61" s="37">
         <v>20.050836626664399</v>
       </c>
-      <c r="O61" s="50">
+      <c r="O61" s="39">
         <v>13.41591453357</v>
       </c>
-      <c r="P61" s="39">
+      <c r="P61" s="36">
         <v>45.084729785298101</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="37">
         <v>13.309039682560099</v>
       </c>
       <c r="R61" s="37">
@@ -5122,22 +5121,22 @@
       <c r="K62" s="60">
         <v>7.2113603581334198</v>
       </c>
-      <c r="L62" s="61">
+      <c r="L62" s="60">
         <v>14.4457673023451</v>
       </c>
-      <c r="M62" s="59">
+      <c r="M62" s="60">
         <v>8.882284982362</v>
       </c>
       <c r="N62" s="60">
         <v>28.2283667936527</v>
       </c>
-      <c r="O62" s="60">
+      <c r="O62" s="61">
         <v>12.290792593192601</v>
       </c>
-      <c r="P62" s="61">
+      <c r="P62" s="59">
         <v>42.513734990211702</v>
       </c>
-      <c r="Q62" s="59">
+      <c r="Q62" s="60">
         <v>14.7732732578107</v>
       </c>
       <c r="R62" s="60">
@@ -5178,25 +5177,25 @@
       <c r="J63" s="65">
         <v>23.008830126131699</v>
       </c>
-      <c r="K63" s="60">
+      <c r="K63" s="65">
         <v>5.7267790044931504</v>
       </c>
-      <c r="L63" s="66">
+      <c r="L63" s="65">
         <v>13.922191562368999</v>
       </c>
-      <c r="M63" s="64">
+      <c r="M63" s="65">
         <v>9.55890079259364</v>
       </c>
       <c r="N63" s="65">
         <v>43.543878819562103</v>
       </c>
-      <c r="O63" s="60">
+      <c r="O63" s="66">
         <v>16.831042654395599</v>
       </c>
-      <c r="P63" s="66">
+      <c r="P63" s="64">
         <v>16.4438347015722</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="Q63" s="65">
         <v>22.023807578172999</v>
       </c>
       <c r="R63" s="65">
@@ -5237,25 +5236,25 @@
       <c r="J64" s="70">
         <v>24.2752895769239</v>
       </c>
-      <c r="K64" s="65">
+      <c r="K64" s="70">
         <v>5.7324347229499004</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="70">
         <v>18.1032893353158</v>
       </c>
-      <c r="M64" s="69">
+      <c r="M64" s="70">
         <v>7.8700687675940397</v>
       </c>
       <c r="N64" s="70">
         <v>37.403629613692701</v>
       </c>
-      <c r="O64" s="65">
+      <c r="O64" s="71">
         <v>16.120535067662001</v>
       </c>
-      <c r="P64" s="71">
+      <c r="P64" s="69">
         <v>15.935804890613401</v>
       </c>
-      <c r="Q64" s="69">
+      <c r="Q64" s="70">
         <v>19.610996498801601</v>
       </c>
       <c r="R64" s="70">
@@ -5299,22 +5298,22 @@
       <c r="K65" s="74">
         <v>6.9726753216818897</v>
       </c>
-      <c r="L65" s="66">
+      <c r="L65" s="74">
         <v>11.667770877204401</v>
       </c>
-      <c r="M65" s="73">
+      <c r="M65" s="74">
         <v>8.2953213961253702</v>
       </c>
       <c r="N65" s="74">
         <v>31.975033290320699</v>
       </c>
-      <c r="O65" s="74">
+      <c r="O65" s="66">
         <v>25.034529420073898</v>
       </c>
-      <c r="P65" s="66">
+      <c r="P65" s="73">
         <v>30.549727667726501</v>
       </c>
-      <c r="Q65" s="73">
+      <c r="Q65" s="74">
         <v>22.264441728480399</v>
       </c>
       <c r="R65" s="74">
@@ -5358,22 +5357,22 @@
       <c r="K66" s="78">
         <v>5.7691275180568704</v>
       </c>
-      <c r="L66" s="79">
+      <c r="L66" s="78">
         <v>13.937126853231799</v>
       </c>
-      <c r="M66" s="77">
+      <c r="M66" s="78">
         <v>9.5395999481186902</v>
       </c>
       <c r="N66" s="78">
         <v>43.106995271769797</v>
       </c>
-      <c r="O66" s="78">
+      <c r="O66" s="79">
         <v>16.701529481656301</v>
       </c>
-      <c r="P66" s="79">
+      <c r="P66" s="77">
         <v>24.206220742571599</v>
       </c>
-      <c r="Q66" s="77">
+      <c r="Q66" s="78">
         <v>19.864940617615598</v>
       </c>
       <c r="R66" s="78">
@@ -5417,22 +5416,22 @@
       <c r="K67" s="74">
         <v>7.7399563385701002</v>
       </c>
-      <c r="L67" s="66">
+      <c r="L67" s="74">
         <v>14.2471245456811</v>
       </c>
-      <c r="M67" s="73">
+      <c r="M67" s="74">
         <v>8.3963219154431794</v>
       </c>
       <c r="N67" s="74">
         <v>28.769996340259301</v>
       </c>
-      <c r="O67" s="74">
+      <c r="O67" s="66">
         <v>12.890146176072101</v>
       </c>
-      <c r="P67" s="66">
+      <c r="P67" s="73">
         <v>41.864818506101201</v>
       </c>
-      <c r="Q67" s="73">
+      <c r="Q67" s="74">
         <v>14.5084481507454</v>
       </c>
       <c r="R67" s="74">
@@ -5476,22 +5475,22 @@
       <c r="K68" s="74">
         <v>7.1055131014905299</v>
       </c>
-      <c r="L68" s="66">
+      <c r="L68" s="74">
         <v>14.872524946418601</v>
       </c>
-      <c r="M68" s="73">
+      <c r="M68" s="74">
         <v>9.3824370865642504</v>
       </c>
       <c r="N68" s="74">
         <v>26.1025407946792</v>
       </c>
-      <c r="O68" s="74">
+      <c r="O68" s="66">
         <v>14.1271773193826</v>
       </c>
-      <c r="P68" s="66">
+      <c r="P68" s="73">
         <v>41.718996901094101</v>
       </c>
-      <c r="Q68" s="73">
+      <c r="Q68" s="74">
         <v>14.8099474174749</v>
       </c>
       <c r="R68" s="74">
@@ -5535,22 +5534,22 @@
       <c r="K69" s="74">
         <v>7.6011400949872998</v>
       </c>
-      <c r="L69" s="66">
+      <c r="L69" s="74">
         <v>10.342201585724</v>
       </c>
-      <c r="M69" s="73">
+      <c r="M69" s="74">
         <v>10.551347675766801</v>
       </c>
       <c r="N69" s="74">
         <v>24.8344920572364</v>
       </c>
-      <c r="O69" s="74">
+      <c r="O69" s="66">
         <v>11.355447058763</v>
       </c>
-      <c r="P69" s="66">
+      <c r="P69" s="73">
         <v>60.697097912381601</v>
       </c>
-      <c r="Q69" s="73">
+      <c r="Q69" s="74">
         <v>10.3158963696839</v>
       </c>
       <c r="R69" s="74">
@@ -5594,22 +5593,22 @@
       <c r="K70" s="74">
         <v>4.6974546431844999</v>
       </c>
-      <c r="L70" s="66">
+      <c r="L70" s="74">
         <v>15.819586275450201</v>
       </c>
-      <c r="M70" s="73">
+      <c r="M70" s="74">
         <v>6.2921932512866299</v>
       </c>
       <c r="N70" s="74">
         <v>18.5755506098327</v>
       </c>
-      <c r="O70" s="74">
+      <c r="O70" s="66">
         <v>11.867545065077399</v>
       </c>
-      <c r="P70" s="66">
+      <c r="P70" s="73">
         <v>52.249739333357503</v>
       </c>
-      <c r="Q70" s="73">
+      <c r="Q70" s="74">
         <v>12.335309326200999</v>
       </c>
       <c r="R70" s="74">
@@ -5653,22 +5652,22 @@
       <c r="K71" s="74">
         <v>7.7557114800067701</v>
       </c>
-      <c r="L71" s="66">
+      <c r="L71" s="74">
         <v>14.767150088403</v>
       </c>
-      <c r="M71" s="73">
+      <c r="M71" s="74">
         <v>11.326143114653</v>
       </c>
       <c r="N71" s="74">
         <v>20.050836626664399</v>
       </c>
-      <c r="O71" s="74">
+      <c r="O71" s="66">
         <v>13.41591453357</v>
       </c>
-      <c r="P71" s="66">
+      <c r="P71" s="73">
         <v>45.084729785298101</v>
       </c>
-      <c r="Q71" s="73">
+      <c r="Q71" s="74">
         <v>13.309039682560099</v>
       </c>
       <c r="R71" s="74">
@@ -5712,22 +5711,22 @@
       <c r="K72" s="74">
         <v>10.352486693064</v>
       </c>
-      <c r="L72" s="66">
+      <c r="L72" s="74">
         <v>13.095852201798801</v>
       </c>
-      <c r="M72" s="73">
+      <c r="M72" s="74">
         <v>9.1567684057863108</v>
       </c>
       <c r="N72" s="74">
         <v>26.0955885209275</v>
       </c>
-      <c r="O72" s="74">
+      <c r="O72" s="66">
         <v>7.8630446295168301</v>
       </c>
-      <c r="P72" s="66">
+      <c r="P72" s="73">
         <v>41.831692164968501</v>
       </c>
-      <c r="Q72" s="73">
+      <c r="Q72" s="74">
         <v>11.5467287408648</v>
       </c>
       <c r="R72" s="74">
@@ -5771,22 +5770,22 @@
       <c r="K73" s="74">
         <v>4.8370482298047897</v>
       </c>
-      <c r="L73" s="66">
+      <c r="L73" s="74">
         <v>14.8264998306484</v>
       </c>
-      <c r="M73" s="73">
+      <c r="M73" s="74">
         <v>7.2179732040353501</v>
       </c>
       <c r="N73" s="74">
         <v>34.573170295114302</v>
       </c>
-      <c r="O73" s="74">
+      <c r="O73" s="66">
         <v>12.2405079309936</v>
       </c>
-      <c r="P73" s="66">
+      <c r="P73" s="73">
         <v>42.6758641548074</v>
       </c>
-      <c r="Q73" s="73">
+      <c r="Q73" s="74">
         <v>14.6349022848886</v>
       </c>
       <c r="R73" s="74">
@@ -5830,22 +5829,22 @@
       <c r="K74" s="74">
         <v>8.2939845184189807</v>
       </c>
-      <c r="L74" s="66">
+      <c r="L74" s="74">
         <v>14.010751854199301</v>
       </c>
-      <c r="M74" s="73">
+      <c r="M74" s="74">
         <v>8.1077866182088094</v>
       </c>
       <c r="N74" s="74">
         <v>32.093455127210603</v>
       </c>
-      <c r="O74" s="74">
+      <c r="O74" s="66">
         <v>9.2163937141496497</v>
       </c>
-      <c r="P74" s="66">
+      <c r="P74" s="73">
         <v>19.771089393161098</v>
       </c>
-      <c r="Q74" s="73">
+      <c r="Q74" s="74">
         <v>25.153240568298401</v>
       </c>
       <c r="R74" s="74">
@@ -5886,25 +5885,25 @@
       <c r="J75" s="65">
         <v>36.270642568695003</v>
       </c>
-      <c r="K75" s="78">
+      <c r="K75" s="65">
         <v>5.5432134304592902</v>
       </c>
-      <c r="L75" s="66">
+      <c r="L75" s="65">
         <v>20.967990427801102</v>
       </c>
-      <c r="M75" s="64">
+      <c r="M75" s="65">
         <v>3.3924436830948399</v>
       </c>
       <c r="N75" s="65">
         <v>18.056891748133499</v>
       </c>
-      <c r="O75" s="78">
+      <c r="O75" s="66">
         <v>7.6966106068133202</v>
       </c>
-      <c r="P75" s="66">
+      <c r="P75" s="64">
         <v>41.248507627337098</v>
       </c>
-      <c r="Q75" s="64">
+      <c r="Q75" s="65">
         <v>13.444562836765501</v>
       </c>
       <c r="R75" s="65">
@@ -5945,25 +5944,25 @@
       <c r="J76" s="83">
         <v>30.9888892707616</v>
       </c>
-      <c r="K76" s="74">
+      <c r="K76" s="83">
         <v>6.6340840121497404</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="83">
         <v>17.7911130651467</v>
       </c>
-      <c r="M76" s="82">
+      <c r="M76" s="83">
         <v>9.6428743633703409</v>
       </c>
       <c r="N76" s="83">
         <v>24.810321796042501</v>
       </c>
-      <c r="O76" s="74">
+      <c r="O76" s="84">
         <v>21.798477803724602</v>
       </c>
-      <c r="P76" s="84">
+      <c r="P76" s="82">
         <v>27.7102078674524</v>
       </c>
-      <c r="Q76" s="82">
+      <c r="Q76" s="83">
         <v>21.503190588424701</v>
       </c>
       <c r="R76" s="83">
@@ -6007,22 +6006,22 @@
       <c r="K77" s="74">
         <v>4.7871955230659404</v>
       </c>
-      <c r="L77" s="66">
+      <c r="L77" s="74">
         <v>15.644738750595</v>
       </c>
-      <c r="M77" s="73">
+      <c r="M77" s="74">
         <v>7.2432630821917003</v>
       </c>
       <c r="N77" s="74">
         <v>40.634376156626402</v>
       </c>
-      <c r="O77" s="74">
+      <c r="O77" s="66">
         <v>14.064306734325401</v>
       </c>
-      <c r="P77" s="66">
+      <c r="P77" s="73">
         <v>15.571318962924799</v>
       </c>
-      <c r="Q77" s="73">
+      <c r="Q77" s="74">
         <v>20.491938072736001</v>
       </c>
       <c r="R77" s="74">
@@ -6066,22 +6065,22 @@
       <c r="K78" s="74">
         <v>5.4859360918277602</v>
       </c>
-      <c r="L78" s="66">
+      <c r="L78" s="74">
         <v>14.337628069284399</v>
       </c>
-      <c r="M78" s="73">
+      <c r="M78" s="74">
         <v>10.5464196895166</v>
       </c>
       <c r="N78" s="74">
         <v>47.200409937840597</v>
       </c>
-      <c r="O78" s="74">
+      <c r="O78" s="66">
         <v>16.6762701188911</v>
       </c>
-      <c r="P78" s="66">
+      <c r="P78" s="73">
         <v>4.50658029165497</v>
       </c>
-      <c r="Q78" s="73">
+      <c r="Q78" s="74">
         <v>24.1584119896937</v>
       </c>
       <c r="R78" s="74">
@@ -6125,22 +6124,22 @@
       <c r="K79" s="78">
         <v>5.1074564810884198</v>
       </c>
-      <c r="L79" s="79">
+      <c r="L79" s="78">
         <v>14.7686634643542</v>
       </c>
-      <c r="M79" s="77">
+      <c r="M79" s="78">
         <v>10.372084210329399</v>
       </c>
       <c r="N79" s="78">
         <v>50.028148492120103</v>
       </c>
-      <c r="O79" s="78">
+      <c r="O79" s="79">
         <v>13.558849923754099</v>
       </c>
-      <c r="P79" s="79">
+      <c r="P79" s="77">
         <v>4.86945026174073</v>
       </c>
-      <c r="Q79" s="77">
+      <c r="Q79" s="78">
         <v>22.486621838803401</v>
       </c>
       <c r="R79" s="78">
@@ -6184,22 +6183,22 @@
       <c r="K80" s="74">
         <v>8.0151220901083704</v>
       </c>
-      <c r="L80" s="66">
+      <c r="L80" s="74">
         <v>14.5320636711605</v>
       </c>
-      <c r="M80" s="73">
+      <c r="M80" s="74">
         <v>7.0415964968039404</v>
       </c>
       <c r="N80" s="74">
         <v>23.603877910849299</v>
       </c>
-      <c r="O80" s="74">
+      <c r="O80" s="66">
         <v>6.4559425984868</v>
       </c>
-      <c r="P80" s="66">
+      <c r="P80" s="73">
         <v>36.9521817880916</v>
       </c>
-      <c r="Q80" s="73">
+      <c r="Q80" s="74">
         <v>17.0512467528762</v>
       </c>
       <c r="R80" s="74">
@@ -6243,22 +6242,22 @@
       <c r="K81" s="74">
         <v>6.3773980736990099</v>
       </c>
-      <c r="L81" s="66">
+      <c r="L81" s="74">
         <v>12.717206406225801</v>
       </c>
-      <c r="M81" s="73">
+      <c r="M81" s="74">
         <v>7.3778312291681001</v>
       </c>
       <c r="N81" s="74">
         <v>30.3461756981043</v>
       </c>
-      <c r="O81" s="74">
+      <c r="O81" s="66">
         <v>13.6419979790849</v>
       </c>
-      <c r="P81" s="66">
+      <c r="P81" s="73">
         <v>14.248481657686201</v>
       </c>
-      <c r="Q81" s="73">
+      <c r="Q81" s="74">
         <v>24.857312405583698</v>
       </c>
       <c r="R81" s="74">
@@ -6302,22 +6301,22 @@
       <c r="K82" s="74">
         <v>7.0642620475992697</v>
       </c>
-      <c r="L82" s="66">
+      <c r="L82" s="74">
         <v>14.429974002473999</v>
       </c>
-      <c r="M82" s="73">
+      <c r="M82" s="74">
         <v>9.2191536782377597</v>
       </c>
       <c r="N82" s="74">
         <v>29.0747052975683</v>
       </c>
-      <c r="O82" s="74">
+      <c r="O82" s="66">
         <v>13.358642109158501</v>
       </c>
-      <c r="P82" s="66">
+      <c r="P82" s="73">
         <v>43.807119455821002</v>
       </c>
-      <c r="Q82" s="73">
+      <c r="Q82" s="74">
         <v>14.2435119798884</v>
       </c>
       <c r="R82" s="74">
@@ -6358,25 +6357,25 @@
       <c r="J83" s="65">
         <v>22.000168084433898</v>
       </c>
-      <c r="K83" s="78">
+      <c r="K83" s="65">
         <v>5.6851080377488898</v>
       </c>
-      <c r="L83" s="66">
+      <c r="L83" s="65">
         <v>13.9993686675994</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="65">
         <v>9.6985943268691504</v>
       </c>
       <c r="N83" s="65">
         <v>44.389167674292501</v>
       </c>
-      <c r="O83" s="78">
+      <c r="O83" s="66">
         <v>17.035295159279901</v>
       </c>
-      <c r="P83" s="66">
+      <c r="P83" s="64">
         <v>16.912745060460502</v>
       </c>
-      <c r="Q83" s="64">
+      <c r="Q83" s="65">
         <v>21.418592954842499</v>
       </c>
       <c r="R83" s="65">
@@ -6417,25 +6416,25 @@
       <c r="J84" s="83">
         <v>20.962939040456501</v>
       </c>
-      <c r="K84" s="74">
+      <c r="K84" s="83">
         <v>7.7145640150643002</v>
       </c>
-      <c r="L84" s="84">
+      <c r="L84" s="83">
         <v>13.0007562815965</v>
       </c>
-      <c r="M84" s="82">
+      <c r="M84" s="83">
         <v>6.4174603488073103</v>
       </c>
       <c r="N84" s="83">
         <v>21.549834303986401</v>
       </c>
-      <c r="O84" s="74">
+      <c r="O84" s="84">
         <v>10.4492214722362</v>
       </c>
-      <c r="P84" s="84">
+      <c r="P84" s="82">
         <v>58.851880056346999</v>
       </c>
-      <c r="Q84" s="82">
+      <c r="Q84" s="83">
         <v>10.0209037646348</v>
       </c>
       <c r="R84" s="83">
@@ -6479,22 +6478,22 @@
       <c r="K85" s="74">
         <v>4.3454637985217701</v>
       </c>
-      <c r="L85" s="86">
+      <c r="L85" s="74">
         <v>11.9932012352507</v>
       </c>
-      <c r="M85" s="73">
+      <c r="M85" s="74">
         <v>7.9039486932783998</v>
       </c>
       <c r="N85" s="74">
         <v>24.5849515135979</v>
       </c>
-      <c r="O85" s="74">
+      <c r="O85" s="86">
         <v>11.004766092388101</v>
       </c>
-      <c r="P85" s="86">
+      <c r="P85" s="73">
         <v>34.3816662901068</v>
       </c>
-      <c r="Q85" s="73">
+      <c r="Q85" s="74">
         <v>16.462896742673401</v>
       </c>
       <c r="R85" s="74">
@@ -6538,22 +6537,22 @@
       <c r="K86" s="74">
         <v>8.2217308494338397</v>
       </c>
-      <c r="L86" s="66">
+      <c r="L86" s="74">
         <v>15.251279379442201</v>
       </c>
-      <c r="M86" s="73">
+      <c r="M86" s="74">
         <v>9.8947929400700794</v>
       </c>
       <c r="N86" s="74">
         <v>25.134917839171301</v>
       </c>
-      <c r="O86" s="74">
+      <c r="O86" s="66">
         <v>12.7213867597563</v>
       </c>
-      <c r="P86" s="66">
+      <c r="P86" s="73">
         <v>33.201466084070297</v>
       </c>
-      <c r="Q86" s="73">
+      <c r="Q86" s="74">
         <v>18.292565165561399</v>
       </c>
       <c r="R86" s="74">
@@ -6597,22 +6596,22 @@
       <c r="K87" s="74">
         <v>7.2040142731683598</v>
       </c>
-      <c r="L87" s="66">
+      <c r="L87" s="74">
         <v>12.1917027637658</v>
       </c>
-      <c r="M87" s="73">
+      <c r="M87" s="74">
         <v>8.7173784772961298</v>
       </c>
       <c r="N87" s="74">
         <v>32.837346028434702</v>
       </c>
-      <c r="O87" s="74">
+      <c r="O87" s="66">
         <v>16.709277870982501</v>
       </c>
-      <c r="P87" s="66">
+      <c r="P87" s="73">
         <v>32.424190360579097</v>
       </c>
-      <c r="Q87" s="73">
+      <c r="Q87" s="74">
         <v>20.017164034739601</v>
       </c>
       <c r="R87" s="74">
@@ -6656,22 +6655,22 @@
       <c r="K88" s="74">
         <v>2.9746178324322599</v>
       </c>
-      <c r="L88" s="66">
+      <c r="L88" s="74">
         <v>12.6355898089693</v>
       </c>
-      <c r="M88" s="73">
+      <c r="M88" s="74">
         <v>7.2112714269034797</v>
       </c>
       <c r="N88" s="74">
         <v>45.625165804693196</v>
       </c>
-      <c r="O88" s="74">
+      <c r="O88" s="66">
         <v>12.293322221683701</v>
       </c>
-      <c r="P88" s="66">
+      <c r="P88" s="73">
         <v>23.0930581748427</v>
       </c>
-      <c r="Q88" s="73">
+      <c r="Q88" s="74">
         <v>17.643147981217901</v>
       </c>
       <c r="R88" s="74">
@@ -6715,22 +6714,22 @@
       <c r="K89" s="74">
         <v>6.6841172877641002</v>
       </c>
-      <c r="L89" s="66">
+      <c r="L89" s="74">
         <v>13.333607220661699</v>
       </c>
-      <c r="M89" s="73">
+      <c r="M89" s="74">
         <v>8.3142871597447296</v>
       </c>
       <c r="N89" s="74">
         <v>32.851360192434399</v>
       </c>
-      <c r="O89" s="74">
+      <c r="O89" s="66">
         <v>24.198868540152102</v>
       </c>
-      <c r="P89" s="66">
+      <c r="P89" s="73">
         <v>19.611002753873699</v>
       </c>
-      <c r="Q89" s="73">
+      <c r="Q89" s="74">
         <v>22.370680081798302</v>
       </c>
       <c r="R89" s="74">
@@ -6774,22 +6773,22 @@
       <c r="K90" s="78">
         <v>5.11907741410249</v>
       </c>
-      <c r="L90" s="79">
+      <c r="L90" s="78">
         <v>14.363184058886301</v>
       </c>
-      <c r="M90" s="77">
+      <c r="M90" s="78">
         <v>10.2626563680797</v>
       </c>
       <c r="N90" s="78">
         <v>49.947158127663101</v>
       </c>
-      <c r="O90" s="78">
+      <c r="O90" s="79">
         <v>13.215671077872001</v>
       </c>
-      <c r="P90" s="79">
+      <c r="P90" s="77">
         <v>4.1126627998236103</v>
       </c>
-      <c r="Q90" s="77">
+      <c r="Q90" s="78">
         <v>23.342684552984</v>
       </c>
       <c r="R90" s="78">
@@ -6833,22 +6832,22 @@
       <c r="K91" s="74">
         <v>7.8608945486409496</v>
       </c>
-      <c r="L91" s="66">
+      <c r="L91" s="74">
         <v>14.9624367901197</v>
       </c>
-      <c r="M91" s="73">
+      <c r="M91" s="74">
         <v>6.4994439959331096</v>
       </c>
       <c r="N91" s="74">
         <v>21.134815631351302</v>
       </c>
-      <c r="O91" s="74">
+      <c r="O91" s="66">
         <v>9.7847485632933608</v>
       </c>
-      <c r="P91" s="66">
+      <c r="P91" s="73">
         <v>51.667248135898397</v>
       </c>
-      <c r="Q91" s="73">
+      <c r="Q91" s="74">
         <v>11.7151242166993</v>
       </c>
       <c r="R91" s="74">
@@ -6892,22 +6891,22 @@
       <c r="K92" s="74">
         <v>8.9301210957552506</v>
       </c>
-      <c r="L92" s="66">
+      <c r="L92" s="74">
         <v>16.4303872505971</v>
       </c>
-      <c r="M92" s="73">
+      <c r="M92" s="74">
         <v>8.8226263580945705</v>
       </c>
       <c r="N92" s="74">
         <v>25.615407353257702</v>
       </c>
-      <c r="O92" s="74">
+      <c r="O92" s="66">
         <v>20.801862573959099</v>
       </c>
-      <c r="P92" s="66">
+      <c r="P92" s="73">
         <v>44.864950112102697</v>
       </c>
-      <c r="Q92" s="73">
+      <c r="Q92" s="74">
         <v>15.731296021627299</v>
       </c>
       <c r="R92" s="74">
@@ -6951,22 +6950,22 @@
       <c r="K93" s="74">
         <v>5.2242514087999901</v>
       </c>
-      <c r="L93" s="66">
+      <c r="L93" s="74">
         <v>20.108390503027799</v>
       </c>
-      <c r="M93" s="73">
+      <c r="M93" s="74">
         <v>9.2829854708072901</v>
       </c>
       <c r="N93" s="74">
         <v>43.281955029843601</v>
       </c>
-      <c r="O93" s="74">
+      <c r="O93" s="66">
         <v>11.271773749768199</v>
       </c>
-      <c r="P93" s="66">
+      <c r="P93" s="73">
         <v>23.9126133172302</v>
       </c>
-      <c r="Q93" s="73">
+      <c r="Q93" s="74">
         <v>17.801580944655001</v>
       </c>
       <c r="R93" s="74">
@@ -7010,22 +7009,22 @@
       <c r="K94" s="74">
         <v>6.0774128917594901</v>
       </c>
-      <c r="L94" s="66">
+      <c r="L94" s="74">
         <v>19.947808202150402</v>
       </c>
-      <c r="M94" s="73">
+      <c r="M94" s="74">
         <v>11.519850793127301</v>
       </c>
       <c r="N94" s="74">
         <v>38.322230274998901</v>
       </c>
-      <c r="O94" s="74">
+      <c r="O94" s="66">
         <v>16.506659298279299</v>
       </c>
-      <c r="P94" s="66">
+      <c r="P94" s="73">
         <v>17.963257856430701</v>
       </c>
-      <c r="Q94" s="73">
+      <c r="Q94" s="74">
         <v>17.6804671810998</v>
       </c>
       <c r="R94" s="74">
@@ -7069,22 +7068,22 @@
       <c r="K95" s="74">
         <v>10.2617504746294</v>
       </c>
-      <c r="L95" s="66">
+      <c r="L95" s="74">
         <v>14.0890703084465</v>
       </c>
-      <c r="M95" s="73">
+      <c r="M95" s="74">
         <v>5.9315564046345397</v>
       </c>
       <c r="N95" s="74">
         <v>23.180040770391599</v>
       </c>
-      <c r="O95" s="74">
+      <c r="O95" s="66">
         <v>10.5008444356707</v>
       </c>
-      <c r="P95" s="66">
+      <c r="P95" s="73">
         <v>57.661345550175703</v>
       </c>
-      <c r="Q95" s="73">
+      <c r="Q95" s="74">
         <v>11.9385577952805</v>
       </c>
       <c r="R95" s="74">
@@ -7125,25 +7124,25 @@
       <c r="J96" s="65">
         <v>30.875665129786199</v>
       </c>
-      <c r="K96" s="78">
+      <c r="K96" s="65">
         <v>6.0987357094842798</v>
       </c>
-      <c r="L96" s="66">
+      <c r="L96" s="65">
         <v>13.737858867647001</v>
       </c>
-      <c r="M96" s="64">
+      <c r="M96" s="65">
         <v>8.3020314196236207</v>
       </c>
       <c r="N96" s="65">
         <v>28.724020355876199</v>
       </c>
-      <c r="O96" s="78">
+      <c r="O96" s="66">
         <v>15.184858321370401</v>
       </c>
-      <c r="P96" s="66">
+      <c r="P96" s="64">
         <v>36.897054299620898</v>
       </c>
-      <c r="Q96" s="64">
+      <c r="Q96" s="65">
         <v>19.803531342196099</v>
       </c>
       <c r="R96" s="65">
@@ -7184,25 +7183,25 @@
       <c r="J97" s="83">
         <v>21.542796058360899</v>
       </c>
-      <c r="K97" s="74">
+      <c r="K97" s="83">
         <v>8.7647364707144693</v>
       </c>
-      <c r="L97" s="84">
+      <c r="L97" s="83">
         <v>14.344412278773101</v>
       </c>
-      <c r="M97" s="82">
+      <c r="M97" s="83">
         <v>9.7516558438594405</v>
       </c>
       <c r="N97" s="83">
         <v>22.206917275381802</v>
       </c>
-      <c r="O97" s="74">
+      <c r="O97" s="84">
         <v>11.0803012606441</v>
       </c>
-      <c r="P97" s="84">
+      <c r="P97" s="82">
         <v>46.7289818448414</v>
       </c>
-      <c r="Q97" s="82">
+      <c r="Q97" s="83">
         <v>12.6458255225056</v>
       </c>
       <c r="R97" s="83">
@@ -7246,22 +7245,22 @@
       <c r="K98" s="78">
         <v>5.7547597496924698</v>
       </c>
-      <c r="L98" s="79">
+      <c r="L98" s="78">
         <v>17.0274147122885</v>
       </c>
-      <c r="M98" s="77">
+      <c r="M98" s="78">
         <v>8.35467295287018</v>
       </c>
       <c r="N98" s="78">
         <v>26.461208746868</v>
       </c>
-      <c r="O98" s="78">
+      <c r="O98" s="79">
         <v>19.726018003216801</v>
       </c>
-      <c r="P98" s="79">
+      <c r="P98" s="77">
         <v>33.919528433887599</v>
       </c>
-      <c r="Q98" s="77">
+      <c r="Q98" s="78">
         <v>19.820004390707901</v>
       </c>
       <c r="R98" s="78">
@@ -7527,7 +7526,7 @@
       <c r="S110" s="90"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="92" t="s">
         <v>181</v>
       </c>
       <c r="C111" s="90"/>
@@ -7549,7 +7548,7 @@
       <c r="S111" s="90"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="92" t="s">
         <v>178</v>
       </c>
       <c r="C112" s="90"/>
@@ -7612,12 +7611,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EEF8D5F5-7C1F-4790-912D-4A414CFD1993}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BD672876-3246-45A8-8B10-C371FD675A31}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1552B5C8-EAE0-4E74-8F30-F9CBDB5FE101}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{DBFF0932-B769-4F3D-A6FB-B63EB8BF84E5}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{5163229B-D835-4E08-B4F3-393DF3269787}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B21141BD-6CE2-4324-9C32-04F24A1634F4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F75539EE-434E-4E59-98F7-CAC176B10005}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EFE99A9B-B4BD-4F88-8CB4-BACE8D6F2A1B}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6439EA04-20F7-4C8D-B43C-D30B412D7D0C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{92D4AAA2-1AB6-4DAB-9A45-BA7026F152E3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{1263479E-3F0E-48EC-9EFA-CD6A79DEF216}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1AE3AC4C-995D-4F76-8B89-186CE21291F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab08.xlsx
+++ b/AfDD_2024_Annex_Table_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95F39CE-D291-4BFC-B153-520C315CF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D2330E-881C-4445-AF02-C7688B1AFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{220C0CC7-CCCD-4B5A-AB79-966A828DBE3E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B0700384-5C0D-4CFD-BCB5-9BAEFBABD372}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F25C9F-BF09-48C0-96B7-A88629A35B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F3E88F-D01E-491A-BC20-89D9906B8DCF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7611,12 +7611,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F75539EE-434E-4E59-98F7-CAC176B10005}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EFE99A9B-B4BD-4F88-8CB4-BACE8D6F2A1B}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6439EA04-20F7-4C8D-B43C-D30B412D7D0C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{92D4AAA2-1AB6-4DAB-9A45-BA7026F152E3}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{1263479E-3F0E-48EC-9EFA-CD6A79DEF216}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{1AE3AC4C-995D-4F76-8B89-186CE21291F4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F543B54A-CF6B-429B-B6E3-2CCFB13AFAC4}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E86D25B1-E539-4CB5-A3C7-CB28D9997E7F}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AA8A82DE-F23E-4F74-AC64-0322DBADC9CF}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{8D2F2A2B-B17D-47CF-90C5-D672217F7DEC}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2C2ED794-9C73-45DB-A65A-49530D9C1A4F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{DB9A5A17-A1BA-42E5-AB35-4C3962BC9CB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId7"/>
